--- a/notes/flow-inoc.xlsx
+++ b/notes/flow-inoc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Sistem NOC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon-portable\www\noc1\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72972D35-A738-45B5-B9CE-C179C6954040}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BED2106-CB43-4A97-9758-32163DACB115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820" xr2:uid="{07122134-20C2-4065-AFE0-2D76CE274A52}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{07122134-20C2-4065-AFE0-2D76CE274A52}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="90">
   <si>
     <t>NOC Submit</t>
   </si>
@@ -285,28 +285,26 @@
     <t>create</t>
   </si>
   <si>
-    <t>editSemak
-updateSemak</t>
-  </si>
-  <si>
-    <t>editMohonUlasan
-updateMohonUlasan</t>
+    <t>updateSemak</t>
+  </si>
+  <si>
+    <t>updateMohonUlasan</t>
+  </si>
+  <si>
+    <t>Selesai NOC</t>
+  </si>
+  <si>
+    <t>noc_20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -359,42 +357,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -710,409 +701,386 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1587650-B1B8-4E83-AF8D-AAB069FD768E}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="6"/>
       <c r="F4" s="12"/>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="15" t="s">
+      <c r="E11" s="4"/>
+      <c r="G11" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="10" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/notes/flow-inoc.xlsx
+++ b/notes/flow-inoc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon-portable\www\noc1\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BED2106-CB43-4A97-9758-32163DACB115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF9D3CB-ACD1-427E-8BA0-FAB66A19206C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{07122134-20C2-4065-AFE0-2D76CE274A52}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="94">
   <si>
     <t>NOC Submit</t>
   </si>
@@ -295,6 +295,18 @@
   </si>
   <si>
     <t>noc_20</t>
+  </si>
+  <si>
+    <t>flow1</t>
+  </si>
+  <si>
+    <t>flow2</t>
+  </si>
+  <si>
+    <t>flow3</t>
+  </si>
+  <si>
+    <t>/</t>
   </si>
 </sst>
 </file>
@@ -357,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -386,6 +398,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -701,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1587650-B1B8-4E83-AF8D-AAB069FD768E}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -716,10 +731,11 @@
     <col min="5" max="5" width="15.109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="22.5546875" style="8" customWidth="1"/>
     <col min="7" max="7" width="11.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="8" max="10" width="8.88671875" style="13"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -741,8 +757,17 @@
       <c r="G1" s="10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -761,8 +786,14 @@
       <c r="G2" s="10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>24</v>
       </c>
@@ -784,8 +815,14 @@
       <c r="G3" s="10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
         <v>27</v>
@@ -800,8 +837,11 @@
       <c r="G4" s="10" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I4" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>25</v>
       </c>
@@ -820,8 +860,11 @@
       <c r="G5" s="10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I5" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="1" t="s">
         <v>31</v>
@@ -835,8 +878,11 @@
       <c r="G6" s="10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I6" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -852,8 +898,11 @@
       <c r="G7" s="10" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I7" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -869,8 +918,11 @@
       <c r="G8" s="10" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I8" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -886,8 +938,11 @@
       <c r="G9" s="10" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I9" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -903,8 +958,11 @@
       <c r="G10" s="10" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I10" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
@@ -921,8 +979,11 @@
       <c r="G11" s="10" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I11" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
@@ -938,8 +999,11 @@
       <c r="G12" s="10" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I12" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
@@ -955,8 +1019,11 @@
       <c r="G13" s="10" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I13" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
@@ -972,8 +1039,11 @@
       <c r="G14" s="10" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I14" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -989,8 +1059,14 @@
       <c r="G15" s="10" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1006,8 +1082,14 @@
       <c r="G16" s="10" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
@@ -1023,8 +1105,14 @@
       <c r="G17" s="10" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1040,8 +1128,14 @@
       <c r="G18" s="10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1057,8 +1151,14 @@
       <c r="G19" s="10" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -1074,8 +1174,14 @@
       <c r="G20" s="10" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
